--- a/medicine/Sexualité et sexologie/Mexican_Pie/Mexican_Pie.xlsx
+++ b/medicine/Sexualité et sexologie/Mexican_Pie/Mexican_Pie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mexican Pie  (The Quest) est un film américain réalisé par Jason A. Carbone et Mike Fleiss, sorti en 2003.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mexican Pie est une comédie documentaire non-censurée, inspirée d'American Pie, ou chaque acteur joue son propre rôle. Ce film suit un groupe d'amis étudiants américains complètement déjantés et en partance pour Mexico, pour un spring break typiquement américain où l'un d'entre eux, poussés par ses amis, espère perdre sa virginité...
 Edward Macsalka, surnommé Eddie, est la risée de tous ses amis. Puceau de 21 ans et seulement considéré comme un bon pote par les filles qu'il côtoie malgré ses tentatives, il est en quête de sa première fois. Hans, Johnny, Kyle, Bryan, Matt et Ghertner, les amis d'Eddie, décident de se réunir pour prendre les choses en mains et partent tous ensemble pour Cabo San Lucas, pour un spring break au Mexique. Sur place, ils vont faire la connaissance de plusieurs personnes, notamment celles de Josh et Alex, deux personnes de petites tailles qui sont là eux aussi pour s'amuser et trouver chaussure à leurs pieds ainsi que Tara et Mélissa, qui les ont rejoints pour un concours de positions sexuelles sur le bord de la plage.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Drunken jackasses the quest
 Titre français : Mexican Pie
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Edward Macsalka
 Hans Swolfs
